--- a/Lab 6/Data/Run_8.xlsx
+++ b/Lab 6/Data/Run_8.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn\Dropbox\2015 Spring\LITEC\Labs\LITEC\Lab 6\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2880" yWindow="2895" windowWidth="20595" windowHeight="7185"/>
   </bookViews>
@@ -513,8 +518,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -565,6 +571,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1257,11 +1266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117800960"/>
-        <c:axId val="113609344"/>
+        <c:axId val="408196632"/>
+        <c:axId val="408197024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117800960"/>
+        <c:axId val="408196632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,12 +1299,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113609344"/>
+        <c:crossAx val="408197024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113609344"/>
+        <c:axId val="408197024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,7 +1334,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117800960"/>
+        <c:crossAx val="408196632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1420,7 +1429,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1455,7 +1464,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1666,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,13 +1685,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Lab 6/Data/Run_8.xlsx
+++ b/Lab 6/Data/Run_8.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn\Dropbox\2015 Spring\LITEC\Labs\LITEC\Lab 6\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2880" yWindow="2895" windowWidth="20595" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="Run_8" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>hkp: 1.0</t>
   </si>
@@ -34,6 +29,9 @@
   </si>
   <si>
     <t>Time(ms)</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -782,156 +780,156 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Run_8!$D$2:$D$50</c:f>
+              <c:f>Run_8!$F$2:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>-36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78</c:v>
+                  <c:v>-33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73</c:v>
+                  <c:v>-28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>79</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>53</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84</c:v>
+                  <c:v>-39</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>72</c:v>
+                  <c:v>-27</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>56</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>65</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>55</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>47</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>56</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>36</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>69</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>36</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>71</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>48</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>59</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>56</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>59</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>57</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>40</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>57</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>38</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>54</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,156 +1100,156 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Run_8!$C$2:$C$50</c:f>
+              <c:f>Run_8!$B$2:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,11 +1264,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408196632"/>
-        <c:axId val="408197024"/>
+        <c:axId val="98830208"/>
+        <c:axId val="98832384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408196632"/>
+        <c:axId val="98830208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,12 +1297,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="408197024"/>
+        <c:crossAx val="98832384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408197024"/>
+        <c:axId val="98832384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,7 +1320,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>heading (degrees)</a:t>
+                  <a:t>Heading Error (degrees)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1334,7 +1332,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="408196632"/>
+        <c:crossAx val="98830208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1429,7 +1427,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1464,7 +1462,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1673,15 +1671,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1694,11 +1692,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>45</v>
       </c>
@@ -1708,8 +1712,15 @@
       <c r="E2">
         <v>1200</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>C2-D2</f>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
         <v>45</v>
       </c>
@@ -1719,8 +1730,15 @@
       <c r="E3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F50" si="0">C3-D3</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>45</v>
       </c>
@@ -1730,8 +1748,15 @@
       <c r="E4">
         <v>2400</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>45</v>
       </c>
@@ -1741,8 +1766,15 @@
       <c r="E5">
         <v>2800</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
         <v>45</v>
       </c>
@@ -1752,8 +1784,15 @@
       <c r="E6">
         <v>3600</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>45</v>
       </c>
@@ -1763,8 +1802,15 @@
       <c r="E7">
         <v>4400</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>45</v>
       </c>
@@ -1774,8 +1820,15 @@
       <c r="E8">
         <v>5200</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>45</v>
       </c>
@@ -1785,8 +1838,15 @@
       <c r="E9">
         <v>5600</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>45</v>
       </c>
@@ -1796,8 +1856,15 @@
       <c r="E10">
         <v>6000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>45</v>
       </c>
@@ -1807,8 +1874,15 @@
       <c r="E11">
         <v>6400</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>45</v>
       </c>
@@ -1818,8 +1892,15 @@
       <c r="E12">
         <v>6800</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>45</v>
       </c>
@@ -1829,8 +1910,15 @@
       <c r="E13">
         <v>7200</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>45</v>
       </c>
@@ -1840,8 +1928,15 @@
       <c r="E14">
         <v>8000</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>45</v>
       </c>
@@ -1851,8 +1946,15 @@
       <c r="E15">
         <v>8400</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>45</v>
       </c>
@@ -1862,8 +1964,15 @@
       <c r="E16">
         <v>8800</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>45</v>
       </c>
@@ -1873,8 +1982,15 @@
       <c r="E17">
         <v>9200</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>45</v>
       </c>
@@ -1884,8 +2000,15 @@
       <c r="E18">
         <v>9600</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
         <v>45</v>
       </c>
@@ -1895,8 +2018,15 @@
       <c r="E19">
         <v>10000</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
         <v>45</v>
       </c>
@@ -1906,8 +2036,15 @@
       <c r="E20">
         <v>10400</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
         <v>45</v>
       </c>
@@ -1917,8 +2054,15 @@
       <c r="E21">
         <v>10800</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
         <v>45</v>
       </c>
@@ -1928,8 +2072,15 @@
       <c r="E22">
         <v>11200</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
         <v>45</v>
       </c>
@@ -1939,8 +2090,15 @@
       <c r="E23">
         <v>12000</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>45</v>
       </c>
@@ -1950,8 +2108,15 @@
       <c r="E24">
         <v>12800</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
         <v>45</v>
       </c>
@@ -1961,8 +2126,15 @@
       <c r="E25">
         <v>13600</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
       <c r="C26">
         <v>45</v>
       </c>
@@ -1972,8 +2144,15 @@
       <c r="E26">
         <v>14400</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="C27">
         <v>45</v>
       </c>
@@ -1983,8 +2162,15 @@
       <c r="E27">
         <v>15200</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
       <c r="C28">
         <v>45</v>
       </c>
@@ -1994,8 +2180,15 @@
       <c r="E28">
         <v>15600</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>45</v>
       </c>
@@ -2005,8 +2198,15 @@
       <c r="E29">
         <v>16000</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
       <c r="C30">
         <v>45</v>
       </c>
@@ -2016,8 +2216,15 @@
       <c r="E30">
         <v>16800</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
       <c r="C31">
         <v>45</v>
       </c>
@@ -2027,8 +2234,15 @@
       <c r="E31">
         <v>20400</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
       <c r="C32">
         <v>45</v>
       </c>
@@ -2038,8 +2252,15 @@
       <c r="E32">
         <v>21600</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
       <c r="C33">
         <v>45</v>
       </c>
@@ -2049,8 +2270,15 @@
       <c r="E33">
         <v>23200</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
       <c r="C34">
         <v>45</v>
       </c>
@@ -2060,8 +2288,15 @@
       <c r="E34">
         <v>23600</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
       <c r="C35">
         <v>45</v>
       </c>
@@ -2071,8 +2306,15 @@
       <c r="E35">
         <v>24400</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
       <c r="C36">
         <v>45</v>
       </c>
@@ -2082,8 +2324,15 @@
       <c r="E36">
         <v>25200</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
       <c r="C37">
         <v>45</v>
       </c>
@@ -2093,8 +2342,15 @@
       <c r="E37">
         <v>26000</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
       <c r="C38">
         <v>45</v>
       </c>
@@ -2104,8 +2360,15 @@
       <c r="E38">
         <v>26800</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
       <c r="C39">
         <v>45</v>
       </c>
@@ -2115,8 +2378,15 @@
       <c r="E39">
         <v>27600</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0</v>
+      </c>
       <c r="C40">
         <v>45</v>
       </c>
@@ -2126,8 +2396,15 @@
       <c r="E40">
         <v>30000</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>45</v>
       </c>
@@ -2137,8 +2414,15 @@
       <c r="E41">
         <v>30400</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>45</v>
       </c>
@@ -2148,8 +2432,15 @@
       <c r="E42">
         <v>30800</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>45</v>
       </c>
@@ -2159,8 +2450,15 @@
       <c r="E43">
         <v>31200</v>
       </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
       <c r="C44">
         <v>45</v>
       </c>
@@ -2170,8 +2468,15 @@
       <c r="E44">
         <v>31600</v>
       </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0</v>
+      </c>
       <c r="C45">
         <v>45</v>
       </c>
@@ -2181,8 +2486,15 @@
       <c r="E45">
         <v>32400</v>
       </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0</v>
+      </c>
       <c r="C46">
         <v>45</v>
       </c>
@@ -2192,8 +2504,15 @@
       <c r="E46">
         <v>33200</v>
       </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
       <c r="C47">
         <v>45</v>
       </c>
@@ -2203,8 +2522,15 @@
       <c r="E47">
         <v>33600</v>
       </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0</v>
+      </c>
       <c r="C48">
         <v>45</v>
       </c>
@@ -2214,8 +2540,15 @@
       <c r="E48">
         <v>34000</v>
       </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0</v>
+      </c>
       <c r="C49">
         <v>45</v>
       </c>
@@ -2225,8 +2558,15 @@
       <c r="E49">
         <v>34800</v>
       </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0</v>
+      </c>
       <c r="C50">
         <v>45</v>
       </c>
@@ -2235,6 +2575,10 @@
       </c>
       <c r="E50">
         <v>36400</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
